--- a/test.xlsx
+++ b/test.xlsx
@@ -512,11 +512,15 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>1771107170</v>
-      </c>
-      <c r="I2" t="n">
-        <v>55095</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1771107170</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>55095</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -551,11 +555,15 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>135926598</v>
-      </c>
-      <c r="I3" t="n">
-        <v>55095</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>135926598</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>55095</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -590,11 +598,15 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>1036184051</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54984</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1036184051</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>54984</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -629,11 +641,15 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>1598577710</v>
-      </c>
-      <c r="I5" t="n">
-        <v>55049</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1598577710</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>55049</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -668,11 +684,15 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>1861598385</v>
-      </c>
-      <c r="I6" t="n">
-        <v>54833</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1861598385</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>54833</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -707,11 +727,15 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>1475197204</v>
-      </c>
-      <c r="I7" t="n">
-        <v>55178</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1475197204</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>55178</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -746,11 +770,15 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>1218724165</v>
-      </c>
-      <c r="I8" t="n">
-        <v>55095</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1218724165</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>55095</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -785,11 +813,15 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>1335747696</v>
-      </c>
-      <c r="I9" t="n">
-        <v>55219</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1335747696</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>55219</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -828,11 +860,15 @@
           <t>문화가있는날</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>710390883</v>
-      </c>
-      <c r="I10" t="n">
-        <v>54984</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>710390883</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>54984</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -867,11 +903,15 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>421495536</v>
-      </c>
-      <c r="I11" t="n">
-        <v>55049</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>421495536</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>55049</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -910,11 +950,15 @@
           <t>문화가 있는 날</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>328352251</v>
-      </c>
-      <c r="I12" t="n">
-        <v>54833</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>328352251</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>54833</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -949,11 +993,15 @@
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>661594315</v>
-      </c>
-      <c r="I13" t="n">
-        <v>55178</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>661594315</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>55178</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -988,11 +1036,15 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>501053668</v>
-      </c>
-      <c r="I14" t="n">
-        <v>55219</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>501053668</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>55219</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1027,11 +1079,15 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>690847578</v>
-      </c>
-      <c r="I15" t="n">
-        <v>54984</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>690847578</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>54984</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1066,11 +1122,15 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>185395172</v>
-      </c>
-      <c r="I16" t="n">
-        <v>55049</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>185395172</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>55049</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1105,11 +1165,15 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>41766066</v>
-      </c>
-      <c r="I17" t="n">
-        <v>54833</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>41766066</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>54833</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1144,11 +1208,15 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>1864932577</v>
-      </c>
-      <c r="I18" t="n">
-        <v>55178</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1864932577</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>55178</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1183,11 +1251,15 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>1297184699</v>
-      </c>
-      <c r="I19" t="n">
-        <v>55219</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1297184699</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>55219</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1226,11 +1298,15 @@
           <t>스페셜</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>1761394353</v>
-      </c>
-      <c r="I20" t="n">
-        <v>55319</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1761394353</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>55319</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1269,11 +1345,15 @@
           <t>스페셜</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>115833620</v>
-      </c>
-      <c r="I21" t="n">
-        <v>55321</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>115833620</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>55321</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1312,11 +1392,15 @@
           <t>4구간</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>1147473818</v>
-      </c>
-      <c r="I22" t="n">
-        <v>55319</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1147473818</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>55319</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1355,11 +1439,15 @@
           <t>4구간</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>300409083</v>
-      </c>
-      <c r="I23" t="n">
-        <v>55321</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>300409083</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>55321</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1398,11 +1486,15 @@
           <t>4구간</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>2091072971</v>
-      </c>
-      <c r="I24" t="n">
-        <v>55319</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2091072971</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>55319</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1441,11 +1533,15 @@
           <t>4구간</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>1532447433</v>
-      </c>
-      <c r="I25" t="n">
-        <v>55321</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1532447433</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>55321</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-22 14:00:00</t>
+          <t>2025-03-23 14:00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,18 +503,18 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-03-18 11:00:00</t>
+          <t>2025-03-19 11:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55095?scheduleId=1771107170</t>
+          <t>https://www.ticketlink.co.kr/reserve/product/55095?scheduleId=135926598</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1771107170</t>
+          <t>135926598</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -526,7 +526,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-23 14:00:00</t>
+          <t>2025-03-25 18:30:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>두산베어스</t>
+          <t>롯데자이언츠</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -546,18 +546,18 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-03-19 11:00:00</t>
+          <t>2025-03-21 11:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55095?scheduleId=135926598</t>
+          <t>https://www.ticketlink.co.kr/reserve/product/55095?scheduleId=1218724165</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>135926598</t>
+          <t>1218724165</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-25 18:30:00</t>
+          <t>2025-03-26 18:30:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -589,18 +589,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-03-18 11:00:00</t>
+          <t>2025-03-19 11:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/54984?scheduleId=1036184051</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>https://www.ticketlink.co.kr/reserve/product/54984?scheduleId=710390883</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>문화가있는날</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1036184051</t>
+          <t>710390883</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,184 +616,188 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-25 18:30:00</t>
+          <t>2025-03-26 18:30:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>삼성 라이온즈</t>
+          <t>LG트윈스</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NC 다이노스</t>
+          <t>한화이글스</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">대구 삼성라이온즈파크 </t>
+          <t>잠실야구장</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-03-18 11:00:00</t>
+          <t>2025-03-19 11:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55049?scheduleId=1598577710</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>https://www.ticketlink.co.kr/reserve/product/54833?scheduleId=328352251</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>문화가 있는 날</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1598577710</t>
+          <t>328352251</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>55049</t>
+          <t>54833</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-25 18:30:00</t>
+          <t>2025-03-26 18:30:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LG트윈스</t>
+          <t>kt wiz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>한화이글스</t>
+          <t>두산베어스</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>잠실야구장</t>
+          <t>수원 케이티위즈파크</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-03-18 11:00:00</t>
+          <t>2025-03-19 14:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/54833?scheduleId=1861598385</t>
+          <t>https://www.ticketlink.co.kr/reserve/product/55178?scheduleId=661594315</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1861598385</t>
+          <t>661594315</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>54833</t>
+          <t>55178</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-25 18:30:00</t>
+          <t>2025-03-26 18:30:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>kt wiz</t>
+          <t>SSG랜더스</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>두산베어스</t>
+          <t>롯데자이언츠</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>수원 케이티위즈파크</t>
+          <t>인천 SSG 랜더스 필드</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-03-18 14:00:00</t>
+          <t>2025-03-22 11:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55178?scheduleId=1475197204</t>
+          <t>https://www.ticketlink.co.kr/reserve/product/55095?scheduleId=1934229185</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1475197204</t>
+          <t>1934229185</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>55178</t>
+          <t>55095</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-25 18:30:00</t>
+          <t>2025-03-26 18:30:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SSG랜더스</t>
+          <t>KIA타이거즈 비스트로펍</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>롯데자이언츠</t>
+          <t>키움히어로즈</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>인천 SSG 랜더스 필드</t>
+          <t>KIA 챔피언스필드</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-03-21 11:00:00</t>
+          <t>2025-03-19 11:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55095?scheduleId=1218724165</t>
+          <t>https://www.ticketlink.co.kr/reserve/product/55219?scheduleId=501053668</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1218724165</t>
+          <t>501053668</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>55095</t>
+          <t>55219</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-25 18:30:00</t>
+          <t>2025-03-27 18:30:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KIA타이거즈 비스트로펍</t>
+          <t>KIA 타이거즈</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -804,435 +812,451 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-03-18 11:00:00</t>
+          <t>2025-03-20 11:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55219?scheduleId=1335747696</t>
+          <t>https://www.ticketlink.co.kr/reserve/product/54984?scheduleId=690847578</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1335747696</t>
+          <t>690847578</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>55219</t>
+          <t>54984</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-26 18:30:00</t>
+          <t>2025-03-27 18:30:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KIA 타이거즈</t>
+          <t>LG트윈스</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>키움히어로즈</t>
+          <t>한화이글스</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>KIA 챔피언스필드</t>
+          <t>잠실야구장</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-03-19 11:00:00</t>
+          <t>2025-03-20 11:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/54984?scheduleId=710390883</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>문화가있는날</t>
-        </is>
-      </c>
+          <t>https://www.ticketlink.co.kr/reserve/product/54833?scheduleId=41766066</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>710390883</t>
+          <t>41766066</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>54984</t>
+          <t>54833</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-26 18:30:00</t>
+          <t>2025-03-27 18:30:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>삼성 라이온즈</t>
+          <t>kt wiz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NC 다이노스</t>
+          <t>두산베어스</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">대구 삼성라이온즈파크 </t>
+          <t>수원 케이티위즈파크</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-03-18 11:00:00</t>
+          <t>2025-03-20 14:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55049?scheduleId=421495536</t>
+          <t>https://www.ticketlink.co.kr/reserve/product/55178?scheduleId=1864932577</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>421495536</t>
+          <t>1864932577</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>55049</t>
+          <t>55178</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-26 18:30:00</t>
+          <t>2025-03-27 18:30:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LG트윈스</t>
+          <t>KIA타이거즈 비스트로펍</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>한화이글스</t>
+          <t>키움히어로즈</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>잠실야구장</t>
+          <t>KIA 챔피언스필드</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-03-19 11:00:00</t>
+          <t>2025-03-20 11:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/54833?scheduleId=328352251</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>문화가 있는 날</t>
-        </is>
-      </c>
+          <t>https://www.ticketlink.co.kr/reserve/product/55219?scheduleId=1297184699</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>328352251</t>
+          <t>1297184699</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>54833</t>
+          <t>55219</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-26 18:30:00</t>
+          <t>2025-03-28 18:30:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>kt wiz</t>
+          <t>한화이글스</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>두산베어스</t>
+          <t>KIA 타이거즈</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>수원 케이티위즈파크</t>
+          <t>대전 한화생명 볼파크</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-03-19 14:00:00</t>
+          <t>2025-03-21 11:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55178?scheduleId=661594315</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>https://www.ticketlink.co.kr/reserve/product/55319?scheduleId=1761394353</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>스페셜</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>661594315</t>
+          <t>1761394353</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>55178</t>
+          <t>55319</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-26 18:30:00</t>
+          <t>2025-03-28 18:30:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KIA타이거즈 비스트로펍</t>
+          <t>한화이글스 이닝스 VIP바&amp;룸</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>키움히어로즈</t>
+          <t>KIA 타이거즈</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>KIA 챔피언스필드</t>
+          <t>대전 한화생명 볼파크</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-03-19 11:00:00</t>
+          <t>2025-03-21 11:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55219?scheduleId=501053668</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>https://www.ticketlink.co.kr/reserve/product/55321?scheduleId=115833620</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>스페셜</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>501053668</t>
+          <t>115833620</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>55219</t>
+          <t>55321</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-27 18:30:00</t>
+          <t>2025-03-29 14:00:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>한화이글스</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>KIA 타이거즈</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>키움히어로즈</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>KIA 챔피언스필드</t>
+          <t>대전 한화생명 볼파크</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-03-20 11:00:00</t>
+          <t>2025-03-22 11:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/54984?scheduleId=690847578</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>https://www.ticketlink.co.kr/reserve/product/55319?scheduleId=1147473818</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4구간</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>690847578</t>
+          <t>1147473818</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>54984</t>
+          <t>55319</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-27 18:30:00</t>
+          <t>2025-03-29 14:00:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>삼성 라이온즈</t>
+          <t>한화이글스 이닝스 VIP바&amp;룸</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NC 다이노스</t>
+          <t>KIA 타이거즈</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">대구 삼성라이온즈파크 </t>
+          <t>대전 한화생명 볼파크</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-03-18 11:00:00</t>
+          <t>2025-03-22 11:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55049?scheduleId=185395172</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>https://www.ticketlink.co.kr/reserve/product/55321?scheduleId=300409083</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4구간</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>185395172</t>
+          <t>300409083</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>55049</t>
+          <t>55321</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-27 18:30:00</t>
+          <t>2025-03-30 14:00:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LG트윈스</t>
+          <t>한화이글스</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>한화이글스</t>
+          <t>KIA 타이거즈</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>잠실야구장</t>
+          <t>대전 한화생명 볼파크</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-03-20 11:00:00</t>
+          <t>2025-03-23 11:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/54833?scheduleId=41766066</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>https://www.ticketlink.co.kr/reserve/product/55319?scheduleId=2091072971</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4구간</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>41766066</t>
+          <t>2091072971</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>54833</t>
+          <t>55319</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-27 18:30:00</t>
+          <t>2025-03-30 14:00:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>kt wiz</t>
+          <t>한화이글스 이닝스 VIP바&amp;룸</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>두산베어스</t>
+          <t>KIA 타이거즈</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>수원 케이티위즈파크</t>
+          <t>대전 한화생명 볼파크</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-03-20 14:00:00</t>
+          <t>2025-03-23 11:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55178?scheduleId=1864932577</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>https://www.ticketlink.co.kr/reserve/product/55321?scheduleId=1532447433</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4구간</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1864932577</t>
+          <t>1532447433</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>55178</t>
+          <t>55321</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-27 18:30:00</t>
+          <t>2025-04-01 18:30:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KIA타이거즈 비스트로펍</t>
+          <t>KIA 타이거즈</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>키움히어로즈</t>
+          <t>삼성 라이온즈</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1242,176 +1266,164 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-03-20 11:00:00</t>
+          <t>2025-03-25 11:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55219?scheduleId=1297184699</t>
+          <t>https://www.ticketlink.co.kr/reserve/product/54984?scheduleId=192371239</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1297184699</t>
+          <t>192371239</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>55219</t>
+          <t>54984</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-28 18:30:00</t>
+          <t>2025-04-01 18:30:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>한화이글스</t>
+          <t>kt wiz</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>KIA 타이거즈</t>
+          <t>LG트윈스</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>대전 한화생명 볼파크</t>
+          <t>수원 케이티위즈파크</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-03-21 11:00:00</t>
+          <t>2025-03-25 14:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55319?scheduleId=1761394353</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>스페셜</t>
-        </is>
-      </c>
+          <t>https://www.ticketlink.co.kr/reserve/product/55178?scheduleId=831871913</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1761394353</t>
+          <t>831871913</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>55319</t>
+          <t>55178</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-28 18:30:00</t>
+          <t>2025-04-01 18:30:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한화이글스 이닝스 VIP바&amp;룸</t>
+          <t>KIA타이거즈 비스트로펍</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>KIA 타이거즈</t>
+          <t>삼성 라이온즈</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>대전 한화생명 볼파크</t>
+          <t>KIA 챔피언스필드</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-03-21 11:00:00</t>
+          <t>2025-03-25 11:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55321?scheduleId=115833620</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>스페셜</t>
-        </is>
-      </c>
+          <t>https://www.ticketlink.co.kr/reserve/product/55219?scheduleId=1441159107</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>115833620</t>
+          <t>1441159107</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>55321</t>
+          <t>55219</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-29 14:00:00</t>
+          <t>2025-04-04 18:30:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>삼성 라이온즈</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>한화이글스</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>KIA 타이거즈</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>대전 한화생명 볼파크</t>
+          <t xml:space="preserve">대구 삼성라이온즈파크 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-03-22 11:00:00</t>
+          <t>2025-03-28 11:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55319?scheduleId=1147473818</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>4구간</t>
-        </is>
-      </c>
+          <t>https://www.ticketlink.co.kr/reserve/product/55049?scheduleId=2102765226</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1147473818</t>
+          <t>2102765226</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>55319</t>
+          <t>55049</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-29 14:00:00</t>
+          <t>2025-04-04 18:30:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>한화이글스 이닝스 VIP바&amp;룸</t>
+          <t>LG트윈스</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1421,126 +1433,114 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>대전 한화생명 볼파크</t>
+          <t>잠실야구장</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-03-22 11:00:00</t>
+          <t>2025-03-28 11:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55321?scheduleId=300409083</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>4구간</t>
-        </is>
-      </c>
+          <t>https://www.ticketlink.co.kr/reserve/product/54833?scheduleId=1580563609</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>300409083</t>
+          <t>1580563609</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>55321</t>
+          <t>54833</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-30 14:00:00</t>
+          <t>2025-04-05 17:00:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>삼성 라이온즈</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>한화이글스</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>KIA 타이거즈</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>대전 한화생명 볼파크</t>
+          <t xml:space="preserve">대구 삼성라이온즈파크 </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-03-23 11:00:00</t>
+          <t>2025-03-28 11:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55319?scheduleId=2091072971</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>4구간</t>
-        </is>
-      </c>
+          <t>https://www.ticketlink.co.kr/reserve/product/55049?scheduleId=594992512</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2091072971</t>
+          <t>594992512</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>55319</t>
+          <t>55049</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-30 14:00:00</t>
+          <t>2025-04-06 14:00:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>한화이글스 이닝스 VIP바&amp;룸</t>
+          <t>삼성 라이온즈</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>KIA 타이거즈</t>
+          <t>한화이글스</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>대전 한화생명 볼파크</t>
+          <t xml:space="preserve">대구 삼성라이온즈파크 </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-03-23 11:00:00</t>
+          <t>2025-03-28 11:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.ticketlink.co.kr/reserve/product/55321?scheduleId=1532447433</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>4구간</t>
-        </is>
-      </c>
+          <t>https://www.ticketlink.co.kr/reserve/product/55049?scheduleId=1600216516</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1532447433</t>
+          <t>1600216516</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>55321</t>
+          <t>55049</t>
         </is>
       </c>
     </row>
